--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>111.005114</v>
+        <v>189.0573523333333</v>
       </c>
       <c r="H2">
-        <v>333.015342</v>
+        <v>567.172057</v>
       </c>
       <c r="I2">
-        <v>0.07617677061978852</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="J2">
-        <v>0.0761767706197885</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.319393666666667</v>
+        <v>0.017765</v>
       </c>
       <c r="N2">
-        <v>3.958181</v>
+        <v>0.053295</v>
       </c>
       <c r="O2">
-        <v>0.4450432677409881</v>
+        <v>0.005225147533577419</v>
       </c>
       <c r="P2">
-        <v>0.4450432677409881</v>
+        <v>0.005225147533577419</v>
       </c>
       <c r="Q2">
-        <v>146.4594443792113</v>
+        <v>3.358603864201667</v>
       </c>
       <c r="R2">
-        <v>1318.134999412902</v>
+        <v>30.227434777815</v>
       </c>
       <c r="S2">
-        <v>0.03390195892258638</v>
+        <v>0.0006179031523488795</v>
       </c>
       <c r="T2">
-        <v>0.03390195892258637</v>
+        <v>0.0006179031523488795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>111.005114</v>
+        <v>189.0573523333333</v>
       </c>
       <c r="H3">
-        <v>333.015342</v>
+        <v>567.172057</v>
       </c>
       <c r="I3">
-        <v>0.07617677061978852</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="J3">
-        <v>0.0761767706197885</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7795190000000001</v>
+        <v>0.8788360000000001</v>
       </c>
       <c r="N3">
-        <v>2.338557</v>
+        <v>2.636508</v>
       </c>
       <c r="O3">
-        <v>0.2629387208615679</v>
+        <v>0.258488474968705</v>
       </c>
       <c r="P3">
-        <v>0.262938720861568</v>
+        <v>0.258488474968705</v>
       </c>
       <c r="Q3">
-        <v>86.530595460166</v>
+        <v>166.1504072952173</v>
       </c>
       <c r="R3">
-        <v>778.7753591414941</v>
+        <v>1495.353665656956</v>
       </c>
       <c r="S3">
-        <v>0.02002982262613226</v>
+        <v>0.03056771938067436</v>
       </c>
       <c r="T3">
-        <v>0.02002982262613226</v>
+        <v>0.03056771938067436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>111.005114</v>
+        <v>189.0573523333333</v>
       </c>
       <c r="H4">
-        <v>333.015342</v>
+        <v>567.172057</v>
       </c>
       <c r="I4">
-        <v>0.07617677061978852</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="J4">
-        <v>0.0761767706197885</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8657286666666666</v>
+        <v>2.503303</v>
       </c>
       <c r="N4">
-        <v>2.597186</v>
+        <v>7.509909</v>
       </c>
       <c r="O4">
-        <v>0.2920180113974439</v>
+        <v>0.7362863774977175</v>
       </c>
       <c r="P4">
-        <v>0.2920180113974439</v>
+        <v>0.7362863774977175</v>
       </c>
       <c r="Q4">
-        <v>96.10030933640132</v>
+        <v>473.2678372680903</v>
       </c>
       <c r="R4">
-        <v>864.9027840276119</v>
+        <v>4259.410535412812</v>
       </c>
       <c r="S4">
-        <v>0.02224498907106987</v>
+        <v>0.08707001491609384</v>
       </c>
       <c r="T4">
-        <v>0.02224498907106987</v>
+        <v>0.08707001491609384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>930.1503093333334</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H5">
         <v>2790.450928</v>
       </c>
       <c r="I5">
-        <v>0.6383115534299679</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="J5">
-        <v>0.6383115534299678</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.319393666666667</v>
+        <v>0.017765</v>
       </c>
       <c r="N5">
-        <v>3.958181</v>
+        <v>0.053295</v>
       </c>
       <c r="O5">
-        <v>0.4450432677409881</v>
+        <v>0.005225147533577419</v>
       </c>
       <c r="P5">
-        <v>0.4450432677409881</v>
+        <v>0.005225147533577419</v>
       </c>
       <c r="Q5">
-        <v>1227.234427182441</v>
+        <v>16.52412024530667</v>
       </c>
       <c r="R5">
-        <v>11045.10984464197</v>
+        <v>148.71708220776</v>
       </c>
       <c r="S5">
-        <v>0.2840762595752993</v>
+        <v>0.003040044733526173</v>
       </c>
       <c r="T5">
-        <v>0.2840762595752992</v>
+        <v>0.003040044733526173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>930.1503093333334</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H6">
         <v>2790.450928</v>
       </c>
       <c r="I6">
-        <v>0.6383115534299679</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="J6">
-        <v>0.6383115534299678</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7795190000000001</v>
+        <v>0.8788360000000001</v>
       </c>
       <c r="N6">
-        <v>2.338557</v>
+        <v>2.636508</v>
       </c>
       <c r="O6">
-        <v>0.2629387208615679</v>
+        <v>0.258488474968705</v>
       </c>
       <c r="P6">
-        <v>0.262938720861568</v>
+        <v>0.258488474968705</v>
       </c>
       <c r="Q6">
-        <v>725.0698389812109</v>
+        <v>817.4495772532692</v>
       </c>
       <c r="R6">
-        <v>6525.628550830897</v>
+        <v>7357.046195279424</v>
       </c>
       <c r="S6">
-        <v>0.1678368233700361</v>
+        <v>0.1503912610995332</v>
       </c>
       <c r="T6">
-        <v>0.1678368233700362</v>
+        <v>0.1503912610995332</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>930.1503093333334</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H7">
         <v>2790.450928</v>
       </c>
       <c r="I7">
-        <v>0.6383115534299679</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="J7">
-        <v>0.6383115534299678</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8657286666666666</v>
+        <v>2.503303</v>
       </c>
       <c r="N7">
-        <v>2.597186</v>
+        <v>7.509909</v>
       </c>
       <c r="O7">
-        <v>0.2920180113974439</v>
+        <v>0.7362863774977175</v>
       </c>
       <c r="P7">
-        <v>0.2920180113974439</v>
+        <v>0.7362863774977175</v>
       </c>
       <c r="Q7">
-        <v>805.2577870987343</v>
+        <v>2328.448059805061</v>
       </c>
       <c r="R7">
-        <v>7247.320083888608</v>
+        <v>20956.03253824555</v>
       </c>
       <c r="S7">
-        <v>0.1863984704846325</v>
+        <v>0.4283790093763168</v>
       </c>
       <c r="T7">
-        <v>0.1863984704846325</v>
+        <v>0.4283790093763168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>343.5753833333333</v>
+        <v>420.6651306666666</v>
       </c>
       <c r="H8">
-        <v>1030.72615</v>
+        <v>1261.995392</v>
       </c>
       <c r="I8">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="J8">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.319393666666667</v>
+        <v>0.017765</v>
       </c>
       <c r="N8">
-        <v>3.958181</v>
+        <v>0.053295</v>
       </c>
       <c r="O8">
-        <v>0.4450432677409881</v>
+        <v>0.005225147533577419</v>
       </c>
       <c r="P8">
-        <v>0.4450432677409881</v>
+        <v>0.005225147533577419</v>
       </c>
       <c r="Q8">
-        <v>453.3111847925722</v>
+        <v>7.473116046293332</v>
       </c>
       <c r="R8">
-        <v>4079.80066313315</v>
+        <v>67.25804441663999</v>
       </c>
       <c r="S8">
-        <v>0.1049310082468681</v>
+        <v>0.001374875439194212</v>
       </c>
       <c r="T8">
-        <v>0.1049310082468681</v>
+        <v>0.001374875439194212</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>343.5753833333333</v>
+        <v>420.6651306666666</v>
       </c>
       <c r="H9">
-        <v>1030.72615</v>
+        <v>1261.995392</v>
       </c>
       <c r="I9">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="J9">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7795190000000001</v>
+        <v>0.8788360000000001</v>
       </c>
       <c r="N9">
-        <v>2.338557</v>
+        <v>2.636508</v>
       </c>
       <c r="O9">
-        <v>0.2629387208615679</v>
+        <v>0.258488474968705</v>
       </c>
       <c r="P9">
-        <v>0.262938720861568</v>
+        <v>0.258488474968705</v>
       </c>
       <c r="Q9">
-        <v>267.8235392406167</v>
+        <v>369.6956607745706</v>
       </c>
       <c r="R9">
-        <v>2410.41185316555</v>
+        <v>3327.260946971136</v>
       </c>
       <c r="S9">
-        <v>0.06199492743074942</v>
+        <v>0.06801520019587307</v>
       </c>
       <c r="T9">
-        <v>0.06199492743074941</v>
+        <v>0.06801520019587308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>343.5753833333333</v>
+        <v>420.6651306666666</v>
       </c>
       <c r="H10">
-        <v>1030.72615</v>
+        <v>1261.995392</v>
       </c>
       <c r="I10">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="J10">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8657286666666666</v>
+        <v>2.503303</v>
       </c>
       <c r="N10">
-        <v>2.597186</v>
+        <v>7.509909</v>
       </c>
       <c r="O10">
-        <v>0.2920180113974439</v>
+        <v>0.7362863774977175</v>
       </c>
       <c r="P10">
-        <v>0.2920180113974439</v>
+        <v>0.7362863774977175</v>
       </c>
       <c r="Q10">
-        <v>297.4430585126555</v>
+        <v>1053.052283593258</v>
       </c>
       <c r="R10">
-        <v>2676.9875266139</v>
+        <v>9477.470552339326</v>
       </c>
       <c r="S10">
-        <v>0.06885115804068849</v>
+        <v>0.1937365500456622</v>
       </c>
       <c r="T10">
-        <v>0.06885115804068848</v>
+        <v>0.1937365500456622</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>72.47344466666667</v>
+        <v>58.84466766666667</v>
       </c>
       <c r="H11">
-        <v>217.420334</v>
+        <v>176.534003</v>
       </c>
       <c r="I11">
-        <v>0.04973458223193755</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="J11">
-        <v>0.04973458223193754</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.319393666666667</v>
+        <v>0.017765</v>
       </c>
       <c r="N11">
-        <v>3.958181</v>
+        <v>0.053295</v>
       </c>
       <c r="O11">
-        <v>0.4450432677409881</v>
+        <v>0.005225147533577419</v>
       </c>
       <c r="P11">
-        <v>0.4450432677409881</v>
+        <v>0.005225147533577419</v>
       </c>
       <c r="Q11">
-        <v>95.62100389471712</v>
+        <v>1.045375521098333</v>
       </c>
       <c r="R11">
-        <v>860.5890350524541</v>
+        <v>9.408379689885001</v>
       </c>
       <c r="S11">
-        <v>0.02213404099623437</v>
+        <v>0.0001923242085081539</v>
       </c>
       <c r="T11">
-        <v>0.02213404099623437</v>
+        <v>0.0001923242085081539</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>72.47344466666667</v>
+        <v>58.84466766666667</v>
       </c>
       <c r="H12">
-        <v>217.420334</v>
+        <v>176.534003</v>
       </c>
       <c r="I12">
-        <v>0.04973458223193755</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="J12">
-        <v>0.04973458223193754</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7795190000000001</v>
+        <v>0.8788360000000001</v>
       </c>
       <c r="N12">
-        <v>2.338557</v>
+        <v>2.636508</v>
       </c>
       <c r="O12">
-        <v>0.2629387208615679</v>
+        <v>0.258488474968705</v>
       </c>
       <c r="P12">
-        <v>0.262938720861568</v>
+        <v>0.258488474968705</v>
       </c>
       <c r="Q12">
-        <v>56.49442711311534</v>
+        <v>51.71481235350267</v>
       </c>
       <c r="R12">
-        <v>508.449844018038</v>
+        <v>465.4333111815241</v>
       </c>
       <c r="S12">
-        <v>0.01307714743465012</v>
+        <v>0.009514294292624374</v>
       </c>
       <c r="T12">
-        <v>0.01307714743465013</v>
+        <v>0.009514294292624374</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>72.47344466666667</v>
+        <v>58.84466766666667</v>
       </c>
       <c r="H13">
-        <v>217.420334</v>
+        <v>176.534003</v>
       </c>
       <c r="I13">
-        <v>0.04973458223193755</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="J13">
-        <v>0.04973458223193754</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8657286666666666</v>
+        <v>2.503303</v>
       </c>
       <c r="N13">
-        <v>2.597186</v>
+        <v>7.509909</v>
       </c>
       <c r="O13">
-        <v>0.2920180113974439</v>
+        <v>0.7362863774977175</v>
       </c>
       <c r="P13">
-        <v>0.2920180113974439</v>
+        <v>0.7362863774977175</v>
       </c>
       <c r="Q13">
-        <v>62.74233862001377</v>
+        <v>147.3060331039697</v>
       </c>
       <c r="R13">
-        <v>564.681047580124</v>
+        <v>1325.754297935727</v>
       </c>
       <c r="S13">
-        <v>0.01452339380105305</v>
+        <v>0.02710080315964465</v>
       </c>
       <c r="T13">
-        <v>0.01452339380105305</v>
+        <v>0.02710080315964465</v>
       </c>
     </row>
   </sheetData>
